--- a/products.xlsx
+++ b/products.xlsx
@@ -479,15 +479,15 @@
           <t>Орлов И. Ю.</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>2342</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Лечение кариеса</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>3000</v>
       </c>
-      <c r="G2" t="n">
-        <v>34234234</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,17 +512,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>прапр</t>
+          <t>Чистка полости рта</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>5000</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>апрапрапр</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
